--- a/biology/Microbiologie/Urnulidae/Urnulidae.xlsx
+++ b/biology/Microbiologie/Urnulidae/Urnulidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Urnulidae sont une famille de Ciliés de la classe des Kinetofragminophora et de l’ordre des Suctorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Urnula, qui, en latin, signifie « petite urne », en référence à la forme de ce cilié. 
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Urnulidae ont une petite taille (&lt; 80 μm). Leur trophonte est sphéroïde, non attaché à la base à la lorique, qui présente plusieurs fentes radiales dans la moitié distale, la divisant en valves triangulaires. Leurs tentacules sont capités, unique ou nombreux, disposés en fascicules ou en rangées, et s'étendant à travers des fentes dans la lorica. La reproduction s’effectue par bourgeonnement « semi-circumvaginatif » avec une protomite latérale. Les essaims sont ovoïdes et ont des cinéties spiralées. Le macronoyau est ellipsoïde. On note la présence d’un micronoyau et de vacuoles contractiles[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Urnulidae ont une petite taille (&lt; 80 μm). Leur trophonte est sphéroïde, non attaché à la base à la lorique, qui présente plusieurs fentes radiales dans la moitié distale, la divisant en valves triangulaires. Leurs tentacules sont capités, unique ou nombreux, disposés en fascicules ou en rangées, et s'étendant à travers des fentes dans la lorica. La reproduction s’effectue par bourgeonnement « semi-circumvaginatif » avec une protomite latérale. Les essaims sont ovoïdes et ont des cinéties spiralées. Le macronoyau est ellipsoïde. On note la présence d’un micronoyau et de vacuoles contractiles.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Urnulidae vivent aussi bien dans des habitats marins qu'en eau douce ; librement mais parfois comme ectocommensaux sur des invertébrés aquatiques ou comme parasites sur des ciliés péritriches ou suctoriens[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Urnulidae vivent aussi bien dans des habitats marins qu'en eau douce ; librement mais parfois comme ectocommensaux sur des invertébrés aquatiques ou comme parasites sur des ciliés péritriches ou suctoriens.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (1er juin 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (1er juin 2023) :
 Metacineta Bütschli 1889
 Genres synonymes : Asellacineta Jankowski 1981, Kellicotta Curds 1985, Vasacineta Jankowski 1981.
 Espèce type : Metacineta mystacina (Ehrenberg, 1831) Bütschli 1889
@@ -640,9 +660,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Urnulidae Fraipont, 1878[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Urnulidae Fraipont, 1878.
 </t>
         </is>
       </c>
